--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N2">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q2">
-        <v>19.06322357208089</v>
+        <v>47.90097574603445</v>
       </c>
       <c r="R2">
-        <v>171.569012148728</v>
+        <v>431.10878171431</v>
       </c>
       <c r="S2">
-        <v>0.0827948916266395</v>
+        <v>0.1373803959165718</v>
       </c>
       <c r="T2">
-        <v>0.08279489162663949</v>
+        <v>0.1373803959165718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q3">
-        <v>43.20768075338489</v>
+        <v>73.23346199793555</v>
       </c>
       <c r="R3">
-        <v>388.8691267804639</v>
+        <v>659.1011579814199</v>
       </c>
       <c r="S3">
-        <v>0.1876584635273436</v>
+        <v>0.2100341766931647</v>
       </c>
       <c r="T3">
-        <v>0.1876584635273436</v>
+        <v>0.2100341766931647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N4">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O4">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P4">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q4">
-        <v>8.893819594029333</v>
+        <v>16.23699474200222</v>
       </c>
       <c r="R4">
-        <v>80.044376346264</v>
+        <v>146.13295267802</v>
       </c>
       <c r="S4">
-        <v>0.03862740352649403</v>
+        <v>0.04656783565283065</v>
       </c>
       <c r="T4">
-        <v>0.03862740352649403</v>
+        <v>0.04656783565283065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H5">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N5">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O5">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P5">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q5">
-        <v>18.56278784504089</v>
+        <v>35.35699486436445</v>
       </c>
       <c r="R5">
-        <v>167.065090605368</v>
+        <v>318.21295377928</v>
       </c>
       <c r="S5">
-        <v>0.0806214123286756</v>
+        <v>0.1014041546593903</v>
       </c>
       <c r="T5">
-        <v>0.08062141232867559</v>
+        <v>0.1014041546593903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N6">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q6">
-        <v>13.30052431173122</v>
+        <v>19.71824100325878</v>
       </c>
       <c r="R6">
-        <v>119.704718805581</v>
+        <v>177.464169029329</v>
       </c>
       <c r="S6">
-        <v>0.0577664876458806</v>
+        <v>0.05655207881710698</v>
       </c>
       <c r="T6">
-        <v>0.0577664876458806</v>
+        <v>0.05655207881710697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q7">
-        <v>30.14625549246422</v>
+        <v>30.14625549246421</v>
       </c>
       <c r="R7">
         <v>271.316299432178</v>
       </c>
       <c r="S7">
-        <v>0.1309304245952936</v>
+        <v>0.08645971090264733</v>
       </c>
       <c r="T7">
-        <v>0.1309304245952936</v>
+        <v>0.08645971090264733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N8">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O8">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P8">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q8">
-        <v>6.205270755350334</v>
+        <v>6.683892561790888</v>
       </c>
       <c r="R8">
-        <v>55.84743679815301</v>
+        <v>60.15503305611799</v>
       </c>
       <c r="S8">
-        <v>0.02695056886683227</v>
+        <v>0.01916945932940998</v>
       </c>
       <c r="T8">
-        <v>0.02695056886683228</v>
+        <v>0.01916945932940998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N9">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O9">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P9">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q9">
-        <v>12.95136733265123</v>
+        <v>14.55456251210578</v>
       </c>
       <c r="R9">
-        <v>116.562305993861</v>
+        <v>130.991062608952</v>
       </c>
       <c r="S9">
-        <v>0.05625003823037088</v>
+        <v>0.04174260605685298</v>
       </c>
       <c r="T9">
-        <v>0.05625003823037087</v>
+        <v>0.04174260605685297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N10">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q10">
-        <v>14.22378762500155</v>
+        <v>26.452288968054</v>
       </c>
       <c r="R10">
-        <v>128.014088625014</v>
+        <v>238.070600712486</v>
       </c>
       <c r="S10">
-        <v>0.06177638060422695</v>
+        <v>0.07586538425851733</v>
       </c>
       <c r="T10">
-        <v>0.06177638060422695</v>
+        <v>0.07586538425851733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q11">
-        <v>32.23887463110355</v>
+        <v>40.44161248762799</v>
       </c>
       <c r="R11">
-        <v>290.1498716799319</v>
+        <v>363.9745123886519</v>
       </c>
       <c r="S11">
-        <v>0.1400190330430915</v>
+        <v>0.1159868801944991</v>
       </c>
       <c r="T11">
-        <v>0.1400190330430916</v>
+        <v>0.1159868801944991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N12">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O12">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P12">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q12">
-        <v>6.636013085731332</v>
+        <v>8.966532940067999</v>
       </c>
       <c r="R12">
-        <v>59.724117771582</v>
+        <v>80.698796460612</v>
       </c>
       <c r="S12">
-        <v>0.02882135763600622</v>
+        <v>0.02571609087540356</v>
       </c>
       <c r="T12">
-        <v>0.02882135763600623</v>
+        <v>0.02571609087540357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N13">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O13">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P13">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q13">
-        <v>13.85039371948156</v>
+        <v>19.525143916752</v>
       </c>
       <c r="R13">
-        <v>124.653543475334</v>
+        <v>175.726295250768</v>
       </c>
       <c r="S13">
-        <v>0.06015466600676229</v>
+        <v>0.05599827477070749</v>
       </c>
       <c r="T13">
-        <v>0.06015466600676229</v>
+        <v>0.05599827477070749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N14">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q14">
-        <v>2.329881406559778</v>
+        <v>2.622630400310666</v>
       </c>
       <c r="R14">
-        <v>20.968932659038</v>
+        <v>23.603673602796</v>
       </c>
       <c r="S14">
-        <v>0.01011907969445183</v>
+        <v>0.007521725750385039</v>
       </c>
       <c r="T14">
-        <v>0.01011907969445183</v>
+        <v>0.007521725750385037</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>191.871922</v>
       </c>
       <c r="O15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q15">
-        <v>5.280784313693776</v>
+        <v>4.009611511341332</v>
       </c>
       <c r="R15">
-        <v>47.52705882324399</v>
+        <v>36.08650360207199</v>
       </c>
       <c r="S15">
-        <v>0.02293536364942334</v>
+        <v>0.01149959908583529</v>
       </c>
       <c r="T15">
-        <v>0.02293536364942334</v>
+        <v>0.01149959908583529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N16">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O16">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P16">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q16">
-        <v>1.086990604032667</v>
+        <v>0.8889930811813332</v>
       </c>
       <c r="R16">
-        <v>9.782915436293999</v>
+        <v>8.000937730632</v>
       </c>
       <c r="S16">
-        <v>0.004720989024745314</v>
+        <v>0.002549639533593328</v>
       </c>
       <c r="T16">
-        <v>0.004720989024745314</v>
+        <v>0.002549639533593328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H17">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N17">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O17">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P17">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q17">
-        <v>2.268718828719778</v>
+        <v>1.935833835338667</v>
       </c>
       <c r="R17">
-        <v>20.418469458478</v>
+        <v>17.422504518048</v>
       </c>
       <c r="S17">
-        <v>0.009853439993762115</v>
+        <v>0.005551987503084179</v>
       </c>
       <c r="T17">
-        <v>0.009853439993762113</v>
+        <v>0.005551987503084179</v>
       </c>
     </row>
   </sheetData>
